--- a/API Spec.xlsx
+++ b/API Spec.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Employer Routes</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>to do</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>To DO</t>
+  </si>
+  <si>
+    <t>TO Do</t>
   </si>
 </sst>
 </file>
@@ -559,7 +571,7 @@
   <dimension ref="B5:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -691,7 +703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:9">
+    <row r="18" spans="2:9">
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
@@ -702,53 +714,80 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="3:9">
+    <row r="19" spans="2:9">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="3:9">
+    <row r="20" spans="2:9">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="3:9">
+    <row r="21" spans="2:9">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="3:9">
+    <row r="22" spans="2:9">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:9">
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="3:9">
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="3:9">
+    <row r="25" spans="2:9">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="3:9">
+    <row r="26" spans="2:9">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="3:9">
+    <row r="27" spans="2:9">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="30" spans="3:9">
+    <row r="30" spans="2:9">
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -759,7 +798,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="3:9">
+    <row r="31" spans="2:9">
       <c r="C31" s="4"/>
     </row>
     <row r="39" spans="6:6">
